--- a/計量作業/dataset.xlsx
+++ b/計量作業/dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88693\Desktop\計量作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88693\Desktop\程式儲存區\我的github小世界\Econometrics-Using-R\計量作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43227F81-5916-41A3-9FD8-C0F794D4C820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7263380-163B-4A05-A228-6C58CD72045A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>attendance</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>vacation</t>
-  </si>
-  <si>
-    <t>holiday</t>
   </si>
   <si>
     <r>
@@ -374,15 +371,15 @@
   </sheetPr>
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -405,9 +402,7 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -434,9 +429,7 @@
       <c r="H2" s="3">
         <v>0.5</v>
       </c>
-      <c r="I2" s="3">
-        <v>17</v>
-      </c>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -463,9 +456,7 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
-        <v>17</v>
-      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -492,9 +483,7 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <v>8</v>
-      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -521,9 +510,7 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <v>11</v>
-      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -550,9 +537,7 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <v>9</v>
-      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -579,9 +564,7 @@
       <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
-        <v>9</v>
-      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -608,9 +591,7 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="3">
-        <v>31</v>
-      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -637,9 +618,7 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
-        <v>31</v>
-      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -666,9 +645,7 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
-        <v>9</v>
-      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -695,9 +672,7 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <v>11</v>
-      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -724,9 +699,7 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
-        <v>8</v>
-      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -753,9 +726,7 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="3">
-        <v>9</v>
-      </c>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -782,9 +753,7 @@
       <c r="H14" s="3">
         <v>0.5</v>
       </c>
-      <c r="I14" s="3">
-        <v>14</v>
-      </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -811,9 +780,7 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3">
-        <v>18</v>
-      </c>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -840,9 +807,7 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="3">
-        <v>9</v>
-      </c>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -869,9 +834,7 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3">
-        <v>10</v>
-      </c>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -898,9 +861,7 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3">
-        <v>9</v>
-      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -927,9 +888,7 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="3">
-        <v>9</v>
-      </c>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -956,9 +915,7 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="3">
-        <v>9</v>
-      </c>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -985,9 +942,7 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
-        <v>8</v>
-      </c>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1014,9 +969,7 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>11</v>
-      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1043,9 +996,7 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3">
-        <v>9</v>
-      </c>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1072,9 +1023,7 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>8</v>
-      </c>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1101,9 +1050,7 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-      <c r="I25" s="3">
-        <v>11</v>
-      </c>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1130,9 +1077,7 @@
       <c r="H26" s="3">
         <v>0.5</v>
       </c>
-      <c r="I26" s="3">
-        <v>18</v>
-      </c>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1159,9 +1104,7 @@
       <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="3">
-        <v>15</v>
-      </c>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1188,9 +1131,7 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="I28" s="3">
-        <v>10</v>
-      </c>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1217,9 +1158,7 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <v>10</v>
-      </c>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1246,9 +1185,7 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="I30" s="3">
-        <v>8</v>
-      </c>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1275,9 +1212,7 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="I31" s="3">
-        <v>11</v>
-      </c>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1304,9 +1239,7 @@
       <c r="H32" s="3">
         <v>1</v>
       </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1333,9 +1266,7 @@
       <c r="H33" s="3">
         <v>1</v>
       </c>
-      <c r="I33" s="3">
-        <v>9</v>
-      </c>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1362,9 +1293,7 @@
       <c r="H34" s="3">
         <v>0</v>
       </c>
-      <c r="I34" s="3">
-        <v>10</v>
-      </c>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1391,9 +1320,7 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3">
-        <v>9</v>
-      </c>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1420,9 +1347,7 @@
       <c r="H36" s="3">
         <v>0</v>
       </c>
-      <c r="I36" s="3">
-        <v>9</v>
-      </c>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -1449,9 +1374,7 @@
       <c r="H37" s="3">
         <v>0</v>
       </c>
-      <c r="I37" s="3">
-        <v>9</v>
-      </c>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
